--- a/prac1/Domain 객체.xlsx
+++ b/prac1/Domain 객체.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\prac1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C61E52-05E0-4093-825F-D953A90E6E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45F9B9-EB0F-4956-939E-DFF51DAEECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB31FA14-FBB9-4A86-B044-48125C61893D}"/>
+    <workbookView xWindow="10140" yWindow="720" windowWidth="15375" windowHeight="7875" xr2:uid="{EB31FA14-FBB9-4A86-B044-48125C61893D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,15 +113,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 등급(일반유저, 어드민)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Domain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 등급(일반유저:1 , 어드민:10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,17 +267,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +596,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -620,13 +620,13 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -634,11 +634,11 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -646,11 +646,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -658,11 +658,11 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -670,11 +670,11 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -682,11 +682,11 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -694,15 +694,15 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/prac1/Domain 객체.xlsx
+++ b/prac1/Domain 객체.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\study\prac1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B45F9B9-EB0F-4956-939E-DFF51DAEECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2797E0-45A5-4E32-BC51-70A2983EC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="720" windowWidth="15375" windowHeight="7875" xr2:uid="{EB31FA14-FBB9-4A86-B044-48125C61893D}"/>
+    <workbookView xWindow="10140" yWindow="720" windowWidth="9060" windowHeight="7875" xr2:uid="{EB31FA14-FBB9-4A86-B044-48125C61893D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>유저 등급(일반유저:1 , 어드민:10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +600,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -624,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
